--- a/TrainList/files/NL_{trainNumber}.xlsx
+++ b/TrainList/files/NL_{trainNumber}.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>НАТУРНЫЙ ЛИСТ ПОЕЗДА</t>
   </si>
@@ -34,19 +34,19 @@
     <t>Поезд №:</t>
   </si>
   <si>
-    <t>2236</t>
+    <t>2168</t>
   </si>
   <si>
     <t>Станция:</t>
   </si>
   <si>
-    <t>ТАРУТИНО</t>
+    <t>КИРБА</t>
   </si>
   <si>
     <t>Состав №:</t>
   </si>
   <si>
-    <t>725</t>
+    <t>925</t>
   </si>
   <si>
     <t>Дата :</t>
@@ -79,433 +79,427 @@
     <t>1</t>
   </si>
   <si>
-    <t>63501639</t>
-  </si>
-  <si>
-    <t>ЭЛ598750</t>
+    <t>68193465</t>
+  </si>
+  <si>
+    <t>ЭЛ635323</t>
   </si>
   <si>
     <t>УГОЛЬ КАМЕННЫЙ МАРКИ Т-ТОЩИЙ</t>
   </si>
   <si>
+    <t>76700</t>
+  </si>
+  <si>
+    <t>ПРИБЫТИЕ ВАГОНА В СОСТАВЕ  ПОЕЗДА НА СТАНЦИЮ</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>63650832</t>
+  </si>
+  <si>
     <t>74700</t>
   </si>
   <si>
-    <t>ОТПРАВЛЕНИЕ  ВАГОНА В СОСТАВЕ ПОЕЗДА СО СТАНЦИИ</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>62917166</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>62893243</t>
+    <t>62738471</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>60196979</t>
+    <t>62650452</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>62044185</t>
-  </si>
-  <si>
-    <t>УГОЛЬ КАМЕННЫЙ МАРКИ Толстый</t>
+    <t>63098164</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>62845805</t>
+    <t>62771001</t>
+  </si>
+  <si>
+    <t>ЭЛ635131</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>62889803</t>
+    <t>63887970</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>62387261</t>
+    <t>63018485</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>63671549</t>
+    <t>68137983</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>63671408</t>
+    <t>63517130</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>63217459</t>
+    <t>62840681</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>63450019</t>
+    <t>62723721</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>62723440</t>
+    <t>60758141</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>63014534</t>
+    <t>63019756</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>62991146</t>
+    <t>62655717</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>62771563</t>
+    <t>63713465</t>
+  </si>
+  <si>
+    <t>ЭЛ635046</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>63452965</t>
+    <t>62680319</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>68282326</t>
-  </si>
-  <si>
-    <t>76700</t>
+    <t>63874663</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>68364207</t>
+    <t>62862818</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>68317072</t>
+    <t>63853758</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>68153881</t>
-  </si>
-  <si>
-    <t>ЭЛ598804</t>
+    <t>62156021</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>62845532</t>
+    <t>63417638</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>62841903</t>
+    <t>63082465</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>62735352</t>
+    <t>63648877</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>64099773</t>
+    <t>62144365</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>64099872</t>
-  </si>
-  <si>
-    <t>ЭЛ598121</t>
+    <t>61108916</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>61716841</t>
+    <t>62654488</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>61311445</t>
+    <t>63023840</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>62942552</t>
+    <t>63883730</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>62787254</t>
+    <t>62666920</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>68235530</t>
+    <t>63100010</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>63215859</t>
+    <t>63453567</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>63731863</t>
+    <t>64019037</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>63799456</t>
+    <t>68176544</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>60770666</t>
+    <t>68160555</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>62982343</t>
-  </si>
-  <si>
-    <t>ЭЛ598566</t>
+    <t>68178375</t>
+  </si>
+  <si>
+    <t>ЭЛ634749</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>61032405</t>
+    <t>68153584</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>61358453</t>
+    <t>68275585</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>63814685</t>
+    <t>62967252</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>63121339</t>
+    <t>62908546</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>62980644</t>
+    <t>63185383</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>63501548</t>
+    <t>63246946</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>63453443</t>
+    <t>62989421</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>61002002</t>
+    <t>63247183</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>62725783</t>
+    <t>64144454</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>63234728</t>
+    <t>63053318</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>62663216</t>
+    <t>62980529</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>63579502</t>
+    <t>62956164</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>63874655</t>
+    <t>64090541</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>63154645</t>
+    <t>60457710</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>68163708</t>
+    <t>63670277</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>55576623</t>
-  </si>
-  <si>
-    <t>69700</t>
+    <t>63775522</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>63097174</t>
+    <t>63154017</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>63534945</t>
+    <t>62901434</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>62789037</t>
+    <t>63572184</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>63035489</t>
-  </si>
-  <si>
-    <t>ЭЛ598781</t>
+    <t>63667372</t>
+  </si>
+  <si>
+    <t>ЭЛ635847</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>62746631</t>
-  </si>
-  <si>
-    <t>ЭЛ598057</t>
+    <t>61059648</t>
+  </si>
+  <si>
+    <t>ЭЛ635661</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>60811155</t>
-  </si>
-  <si>
-    <t>ЭЛ599073</t>
+    <t>63420624</t>
+  </si>
+  <si>
+    <t>ЭЛ635635</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>62631288</t>
-  </si>
-  <si>
-    <t>ЭЛ599012</t>
+    <t>63510077</t>
+  </si>
+  <si>
+    <t>ЭЛ635391</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>68175678</t>
-  </si>
-  <si>
-    <t>ЭЛ598912</t>
+    <t>63873574</t>
+  </si>
+  <si>
+    <t>ЭЛ636069</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>63152540</t>
-  </si>
-  <si>
-    <t>ЭЛ598714</t>
+    <t>62846209</t>
+  </si>
+  <si>
+    <t>ЭЛ635900</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>62942453</t>
-  </si>
-  <si>
-    <t>ЭЛ598621</t>
+    <t>63928931</t>
+  </si>
+  <si>
+    <t>ЭЛ635796</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>63216642</t>
-  </si>
-  <si>
-    <t>ЭЛ598482</t>
+    <t>63929558</t>
+  </si>
+  <si>
+    <t>ЭЛ635947</t>
   </si>
   <si>
     <t>Всего: 63</t>
@@ -978,7 +972,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ72"/>
+  <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal" defaultGridColor="0" colorId="64"/>
   </sheetViews>
@@ -1124,7 +1118,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
@@ -1132,10 +1126,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1147,7 +1141,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -1155,10 +1149,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1170,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -1178,10 +1172,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1190,10 +1184,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -1207,7 +1201,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1216,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>22</v>
@@ -1224,14 +1218,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>22</v>
@@ -1247,13 +1241,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1262,7 +1256,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
@@ -1270,13 +1264,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1293,13 +1287,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1308,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>22</v>
@@ -1316,13 +1310,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1331,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>22</v>
@@ -1339,13 +1333,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1354,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>22</v>
@@ -1362,13 +1356,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -1377,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>22</v>
@@ -1385,13 +1379,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1400,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>22</v>
@@ -1408,13 +1402,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1423,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>22</v>
@@ -1431,13 +1425,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1446,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>22</v>
@@ -1454,14 +1448,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
@@ -1477,13 +1471,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1492,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>22</v>
@@ -1500,13 +1494,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1515,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>22</v>
@@ -1523,13 +1517,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -1538,7 +1532,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
@@ -1546,13 +1540,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1561,7 +1555,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>22</v>
@@ -1575,7 +1569,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1584,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
@@ -1598,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1607,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>22</v>
@@ -1621,7 +1615,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -1630,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
@@ -1644,7 +1638,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -1653,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>22</v>
@@ -1667,7 +1661,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -1676,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>22</v>
@@ -1684,13 +1678,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -1699,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>22</v>
@@ -1707,13 +1701,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1722,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>22</v>
@@ -1730,13 +1724,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1745,7 +1739,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>22</v>
@@ -1753,13 +1747,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -1768,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>22</v>
@@ -1776,13 +1770,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -1791,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>22</v>
@@ -1799,13 +1793,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -1814,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>22</v>
@@ -1822,13 +1816,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -1837,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>22</v>
@@ -1845,13 +1839,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
@@ -1868,13 +1862,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -1891,13 +1885,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -1914,13 +1908,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -1937,13 +1931,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -1960,13 +1954,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -1975,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>22</v>
@@ -1983,13 +1977,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
@@ -1998,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>22</v>
@@ -2006,13 +2000,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
@@ -2021,7 +2015,7 @@
         <v>20</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>22</v>
@@ -2029,13 +2023,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
@@ -2044,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>22</v>
@@ -2052,13 +2046,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -2067,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>22</v>
@@ -2075,13 +2069,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -2090,7 +2084,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>22</v>
@@ -2098,13 +2092,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
@@ -2113,7 +2107,7 @@
         <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>22</v>
@@ -2121,13 +2115,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
@@ -2136,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>22</v>
@@ -2144,13 +2138,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
@@ -2159,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>22</v>
@@ -2167,13 +2161,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -2182,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>22</v>
@@ -2190,13 +2184,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
@@ -2205,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>22</v>
@@ -2213,13 +2207,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -2228,7 +2222,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>22</v>
@@ -2236,13 +2230,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -2251,7 +2245,7 @@
         <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>22</v>
@@ -2259,13 +2253,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
@@ -2274,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>22</v>
@@ -2282,13 +2276,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -2297,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>22</v>
@@ -2305,13 +2299,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -2320,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>22</v>
@@ -2328,13 +2322,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -2343,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>22</v>
@@ -2351,14 +2345,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>22</v>
@@ -2374,14 +2368,14 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>22</v>
@@ -2397,14 +2391,14 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>22</v>
@@ -2420,14 +2414,14 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
@@ -2435,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>22</v>
@@ -2443,14 +2437,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>22</v>
@@ -2466,14 +2460,14 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>22</v>
@@ -2489,14 +2483,14 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>22</v>
@@ -2512,14 +2506,14 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>22</v>
@@ -2536,7 +2530,7 @@
     <row r="70">
       <c r="A70" s="14"/>
       <c r="B70" s="14">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -2544,42 +2538,26 @@
         <v>20</v>
       </c>
       <c r="F70" s="15">
-        <v>4640400</v>
+        <v>4720100</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
     </row>
     <row r="71">
       <c r="A71" s="14"/>
-      <c r="B71" s="14">
-        <v>1</v>
+      <c r="B71" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="14" t="s">
-        <v>31</v>
+      <c r="E71" s="14">
+        <v>1</v>
       </c>
       <c r="F71" s="15">
-        <v>74700</v>
+        <v>4720100</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="14"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14">
-        <v>2</v>
-      </c>
-      <c r="F72" s="15">
-        <v>4715100</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
